--- a/Data/WASH-data-PB-VN-Industry.xlsx
+++ b/Data/WASH-data-PB-VN-Industry.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam\2022-WASH-VN\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B5BFA-013F-43BF-962A-41CC89D27F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8ECC54-D179-410C-9587-030A7A02E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="foxz" sheetId="9" state="veryHidden" r:id=""/>
-    <sheet name="database" sheetId="1" r:id="rId1"/>
-    <sheet name="generic" sheetId="5" r:id="rId2"/>
-    <sheet name="Q1.1-Q1.2" sheetId="3" r:id="rId3"/>
-    <sheet name="Q1.14" sheetId="4" r:id="rId4"/>
-    <sheet name="Q9.2" sheetId="8" r:id="rId5"/>
+    <sheet name="foxz" sheetId="9" state="veryHidden" r:id="rId1"/>
+    <sheet name="database" sheetId="1" r:id="rId2"/>
+    <sheet name="generic" sheetId="5" r:id="rId3"/>
+    <sheet name="Q1.1-Q1.2" sheetId="3" r:id="rId4"/>
+    <sheet name="Q1.14" sheetId="4" r:id="rId5"/>
+    <sheet name="Q9.2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -1096,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1148,7 +1148,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1349,12 +1349,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A62FA62-411F-4F72-83F4-238860598655}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAA3B3C-AEF1-43C4-AA19-5310C48D632E}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="R4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="AD11" sqref="AD11"/>
     </sheetView>
@@ -3819,8 +3832,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0AB79-98A3-464D-805A-41C6BC4E2E63}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3937,8 +3950,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D17371B-0588-4150-85EE-993E6CE3E718}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4016,8 +4029,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38981296-76EC-4FD0-8FA6-86BF665EC768}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4096,8 +4109,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B3E598-D081-41A1-85DF-A808BD7E60A4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4221,14 +4234,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b006265b-fab6-480b-bdca-c9801be0c43d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4407,21 +4418,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b006265b-fab6-480b-bdca-c9801be0c43d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BEF924-BF5F-4071-B707-55CB1EBA84FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119FAF29-A520-4B1C-8029-730A23048622}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
-    <ds:schemaRef ds:uri="b006265b-fab6-480b-bdca-c9801be0c43d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4446,9 +4456,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119FAF29-A520-4B1C-8029-730A23048622}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BEF924-BF5F-4071-B707-55CB1EBA84FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
+    <ds:schemaRef ds:uri="b006265b-fab6-480b-bdca-c9801be0c43d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/WASH-data-PB-VN-Industry.xlsx
+++ b/Data/WASH-data-PB-VN-Industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam\2022-WASH-VN\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8ECC54-D179-410C-9587-030A7A02E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB74072-417F-4809-933F-68DF61015B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foxz" sheetId="9" state="veryHidden" r:id="rId1"/>
@@ -20,10 +20,24 @@
     <sheet name="Q1.14" sheetId="4" r:id="rId5"/>
     <sheet name="Q9.2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">database!$A$7:$AJ$27</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1366,10 +1380,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="R4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3798,6 +3812,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:AJ27" xr:uid="{3CAA3B3C-AEF1-43C4-AA19-5310C48D632E}"/>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4234,6 +4249,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b006265b-fab6-480b-bdca-c9801be0c43d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4242,7 +4268,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A2C29D39D8DAC4D9FC0B028C55E8BBE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5850da55fa3ce5da3a412accbc52ee87">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f" xmlns:ns3="b006265b-fab6-480b-bdca-c9801be0c43d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0148c81b6aab65ba8660cd93f71aa15c" ns2:_="" ns3:_="">
     <xsd:import namespace="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
@@ -4417,18 +4443,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b006265b-fab6-480b-bdca-c9801be0c43d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BEF924-BF5F-4071-B707-55CB1EBA84FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
+    <ds:schemaRef ds:uri="b006265b-fab6-480b-bdca-c9801be0c43d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119FAF29-A520-4B1C-8029-730A23048622}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4436,7 +4462,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0E51F00-1119-4D77-8FF1-1F018C7D7435}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4453,15 +4479,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22BEF924-BF5F-4071-B707-55CB1EBA84FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
-    <ds:schemaRef ds:uri="b006265b-fab6-480b-bdca-c9801be0c43d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>